--- a/R/data_dic/data_dictionary.xlsx
+++ b/R/data_dic/data_dictionary.xlsx
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Start time of dark measurement</t>
+          <t>Start time of dark measurement (UTC + 2)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>End time of dark measurement</t>
+          <t>End time of dark measurement (UTC + 2)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Time in seconds for dark measurement  (UTC + 2)</t>
+          <t>Time in seconds for dark measurement</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PAR value of dark measurement  (UTC + 2)</t>
+          <t>PAR value of dark measurement</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
